--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129935.3487747468</v>
+        <v>129935.3487747467</v>
       </c>
     </row>
     <row r="7">
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42439.71590049707</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="C2" t="n">
-        <v>42439.71590049707</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="D2" t="n">
-        <v>42439.71590049707</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="E2" t="n">
-        <v>42439.71590049707</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="F2" t="n">
-        <v>42439.71590049708</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="G2" t="n">
         <v>42439.71590049707</v>
@@ -26332,28 +26334,28 @@
         <v>42439.71590049706</v>
       </c>
       <c r="I2" t="n">
-        <v>42439.71590049707</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="J2" t="n">
         <v>42439.71590049706</v>
       </c>
       <c r="K2" t="n">
-        <v>42439.71590049707</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="L2" t="n">
-        <v>42439.71590049707</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="M2" t="n">
-        <v>42439.71590049708</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="N2" t="n">
         <v>42439.71590049707</v>
       </c>
       <c r="O2" t="n">
-        <v>42439.71590049707</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="P2" t="n">
-        <v>42439.71590049707</v>
+        <v>42439.71590049706</v>
       </c>
     </row>
     <row r="3">
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7102.777562189327</v>
+        <v>-7102.777562189334</v>
       </c>
       <c r="C6" t="n">
-        <v>-7102.777562189331</v>
+        <v>-7102.777562189334</v>
       </c>
       <c r="D6" t="n">
-        <v>-7102.77756218932</v>
+        <v>-7102.777562189334</v>
       </c>
       <c r="E6" t="n">
-        <v>26524.82243781067</v>
+        <v>26524.82243781066</v>
       </c>
       <c r="F6" t="n">
-        <v>26524.82243781069</v>
+        <v>26524.82243781066</v>
       </c>
       <c r="G6" t="n">
         <v>26524.82243781067</v>
@@ -26540,28 +26542,28 @@
         <v>26524.82243781066</v>
       </c>
       <c r="I6" t="n">
-        <v>26524.82243781067</v>
+        <v>26524.82243781066</v>
       </c>
       <c r="J6" t="n">
         <v>26524.82243781066</v>
       </c>
       <c r="K6" t="n">
+        <v>26524.82243781066</v>
+      </c>
+      <c r="L6" t="n">
+        <v>26524.82243781066</v>
+      </c>
+      <c r="M6" t="n">
+        <v>26524.82243781066</v>
+      </c>
+      <c r="N6" t="n">
         <v>26524.82243781067</v>
       </c>
-      <c r="L6" t="n">
-        <v>26524.82243781067</v>
-      </c>
-      <c r="M6" t="n">
-        <v>26524.82243781068</v>
-      </c>
-      <c r="N6" t="n">
-        <v>26524.82243781068</v>
-      </c>
       <c r="O6" t="n">
-        <v>26524.82243781067</v>
+        <v>26524.82243781066</v>
       </c>
       <c r="P6" t="n">
-        <v>26524.82243781067</v>
+        <v>26524.82243781066</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129935.3487747467</v>
+        <v>4075.095936891716</v>
       </c>
     </row>
     <row r="7">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42439.71590049706</v>
+        <v>42439.71590049707</v>
       </c>
       <c r="C2" t="n">
-        <v>42439.71590049706</v>
+        <v>42439.71590049705</v>
       </c>
       <c r="D2" t="n">
         <v>42439.71590049706</v>
@@ -26328,7 +26328,7 @@
         <v>42439.71590049706</v>
       </c>
       <c r="G2" t="n">
-        <v>42439.71590049707</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="H2" t="n">
         <v>42439.71590049706</v>
@@ -26346,10 +26346,10 @@
         <v>42439.71590049706</v>
       </c>
       <c r="M2" t="n">
-        <v>42439.71590049706</v>
+        <v>42439.71590049707</v>
       </c>
       <c r="N2" t="n">
-        <v>42439.71590049707</v>
+        <v>42439.71590049705</v>
       </c>
       <c r="O2" t="n">
         <v>42439.71590049706</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7102.777562189334</v>
+        <v>-22145.79829000061</v>
       </c>
       <c r="C6" t="n">
-        <v>-7102.777562189334</v>
+        <v>-22145.79829000062</v>
       </c>
       <c r="D6" t="n">
-        <v>-7102.777562189334</v>
+        <v>-22145.79829000061</v>
       </c>
       <c r="E6" t="n">
-        <v>26524.82243781066</v>
+        <v>11481.80170999938</v>
       </c>
       <c r="F6" t="n">
-        <v>26524.82243781066</v>
+        <v>11481.80170999938</v>
       </c>
       <c r="G6" t="n">
-        <v>26524.82243781067</v>
+        <v>11481.80170999938</v>
       </c>
       <c r="H6" t="n">
-        <v>26524.82243781066</v>
+        <v>11481.80170999938</v>
       </c>
       <c r="I6" t="n">
-        <v>26524.82243781066</v>
+        <v>11481.80170999938</v>
       </c>
       <c r="J6" t="n">
-        <v>26524.82243781066</v>
+        <v>11481.80170999938</v>
       </c>
       <c r="K6" t="n">
-        <v>26524.82243781066</v>
+        <v>11481.80170999938</v>
       </c>
       <c r="L6" t="n">
-        <v>26524.82243781066</v>
+        <v>11481.80170999938</v>
       </c>
       <c r="M6" t="n">
-        <v>26524.82243781066</v>
+        <v>11481.80170999939</v>
       </c>
       <c r="N6" t="n">
-        <v>26524.82243781067</v>
+        <v>11481.80170999937</v>
       </c>
       <c r="O6" t="n">
-        <v>26524.82243781066</v>
+        <v>11481.80170999938</v>
       </c>
       <c r="P6" t="n">
-        <v>26524.82243781066</v>
+        <v>11481.80170999938</v>
       </c>
     </row>
   </sheetData>
